--- a/biology/Botanique/Baptisie_bleue/Baptisie_bleue.xlsx
+++ b/biology/Botanique/Baptisie_bleue/Baptisie_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lupin indigo - Baptisia australis - est une plante d'Amérique du Nord de la famille des Fabacées
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a d'abord été décrite en 1767 par Carl von Linné comme une espèce du genre Sophora : Sophora australis L..
 En 1799, Carl Ludwig von Willdenow la place dans le genre Podalyria : Podalyria australis (L.) Willd.
@@ -555,7 +569,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lupin indigo est une plante herbacée vivace, caduque, en touffe, de moins d'un mètre de haut.
 Les feuilles sont pédicellées, à trois folioles.
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lupin indigo est originaire du centre des États-Unis.
 Il s'agit de l'espèce du genre la plus diffusée dans la plupart des régions tempérées comme plante ornementale.
@@ -622,11 +640,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des propriétés médicinales sont signalées pour le lupin indigo[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des propriétés médicinales sont signalées pour le lupin indigo.
 Plusieurs tribus amérindiennes ont utilisé la plante à diverses fins.
-Les Cherokees l'utilisent traditionnellement comme source de teinture bleue, une pratique copiée plus tard par les colons européens[2].
+Les Cherokees l'utilisent traditionnellement comme source de teinture bleue, une pratique copiée plus tard par les colons européens.
 Actuellement, la seule utilisation de cette espèce est ornementale. Elle est particulièrement rustique en France, en situation ensoleillées et elle est très accommodante sur la qualité des sols, en exigeant toutefois une situation un peu sèche. Sa propagation se fait par semis.
 			Fleurs et feuilles
 			Fleurs
